--- a/pred_ohlcv/54_21/2019-10-31 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 TRV ohlcv.xlsx
@@ -6684,7 +6684,7 @@
         <v>23565507.64161851</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>23144848.9623114</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>22674173.78221856</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>22798163.23521856</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>22798163.23521856</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>23867615.55091856</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>24230965.41051856</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>23677783.2847793</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>23312642.26038031</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>22973675.9603803</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>24044225.9524803</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>24513692.51548221</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>23851434.18549683</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>24222532.74269683</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>23964256.1337493</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>24596017.8832225</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>25836615.02703196</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>25235228.82518626</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>25904672.27457479</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>25904672.27457479</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>25005755.79277479</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>24653411.29627479</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>24848864.42187479</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>24347981.54597479</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>23854566.45162173</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>24594534.13902173</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-10076295.71515528</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-10166243.53415528</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-10193132.69785528</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-10193132.69785528</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-10161209.42535528</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-10161759.42535528</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-10160381.77935528</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-10234835.77255528</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-10212041.59875528</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-10272077.35925528</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-10326547.38375528</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-10162433.00235528</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-10164172.40755528</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-10080393.2419164</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-10108376.6124164</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-10179601.9085164</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-10179601.9085164</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-10178635.9119164</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-10178635.9119164</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-10178635.9119164</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-10165143.1334164</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-10162319.3945164</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-10162654.9093164</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-10162640.6394164</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-10208006.6323164</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-10208006.6323164</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-10128187.3310164</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-10128006.64899184</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-10131066.06349184</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-10005540.02839184</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-10048212.63279184</v>
       </c>
       <c r="H809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-10012292.52249184</v>
       </c>
       <c r="H810">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-10012292.52249184</v>
       </c>
       <c r="H811">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-9881687.784791835</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-9881687.784791835</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-9816079.357591834</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 TRV ohlcv.xlsx
@@ -6684,7 +6684,7 @@
         <v>23565507.64161851</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>23144848.9623114</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>22674173.78221856</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>22798163.23521856</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>22798163.23521856</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>23867615.55091856</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>24230965.41051856</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>23677783.2847793</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>23312642.26038031</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>22973675.9603803</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>24044225.9524803</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>24513692.51548221</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>23851434.18549683</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>24222532.74269683</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>23964256.1337493</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>24596017.8832225</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>25836615.02703196</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>25235228.82518626</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>25904672.27457479</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>25904672.27457479</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>25005755.79277479</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>24653411.29627479</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>24848864.42187479</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>24511472.66477479</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>24643205.09957479</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>24594534.13902173</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>24986523.23178763</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>24832507.15848763</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>24915479.48088763</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>24994806.44988763</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>25287039.39628763</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>25752369.64438763</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>25752369.64438763</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>26079923.96408763</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>26079923.96408763</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>26260780.46598763</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>26260780.46598763</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>25814887.29518763</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>26261648.68048763</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>25742810.74058762</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-9748565.230478687</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-9679759.036078688</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-9679806.547578687</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-9679796.059078686</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-9703369.015078686</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-9703369.015078686</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-9703369.015078686</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-9704493.527878687</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-9720747.586278686</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-9720747.586278686</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-9727136.976878686</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-9737904.339678686</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-9737892.339678686</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-9723664.013578687</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-9727353.584978687</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-9726989.474978687</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-9729709.776778687</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-9714291.639778687</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-9718317.481978687</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-9718317.481978687</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-9774729.744078686</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-9774729.744078686</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-9816770.267478686</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-9816770.267478686</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-9816770.267478686</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-9816770.267478686</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-9816770.267478686</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-9800479.385578686</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-9800479.385578686</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-9784941.783355283</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-9809246.654555283</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-9903305.730555283</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-9925049.057455283</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-10014684.84315528</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-10014684.84315528</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-10076295.71515528</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-10076295.71515528</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-10166243.53415528</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-10193132.69785528</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-10193132.69785528</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-10161209.42535528</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-10161759.42535528</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-10160381.77935528</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-10234835.77255528</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-10212041.59875528</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-10255797.27625528</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-10260602.39765528</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-10272077.35925528</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-10326547.38375528</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-10167953.05715528</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-10162433.00235528</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-10164172.40755528</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-10066978.1221164</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-10082607.7320164</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-10082607.7320164</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-10080393.2419164</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-10080393.2419164</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-10093111.8970164</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-10108496.6124164</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-10108376.6124164</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-10108376.6124164</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-10179601.9085164</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-10179601.9085164</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-10179601.9085164</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-10178635.9119164</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-10178635.9119164</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-10178635.9119164</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-10165143.1334164</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-10162319.3945164</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-10162319.3945164</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-10162654.9093164</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-10162654.9093164</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-10162640.6394164</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-10207236.7517164</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-10208006.6323164</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-10208006.6323164</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-10208006.6323164</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-10128187.3310164</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-10128006.64899184</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-10131066.06349184</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-10005540.02839184</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-10048212.63279184</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-10012292.52249184</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-10012292.52249184</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-9881687.784791835</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-9881687.784791835</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-9816079.357591834</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-9816079.357591834</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-9815788.793691834</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-9815788.793691834</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-9793079.357591834</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-9794565.300991833</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-9762824.296991833</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-9763874.296991833</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-9761767.984591832</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-9761767.984591832</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-9761767.984591832</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-9779777.312091833</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-9724596.740091832</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-9635204.717791833</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-9615146.620991834</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-9615146.620991834</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-9615496.620991834</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-9629043.434391834</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-9643077.892491834</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-9643077.892491834</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-9643077.892491834</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-9643077.892491834</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-9642869.916191835</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-9642869.916191835</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-9642869.916191835</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-9643989.768591834</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-9640293.466891835</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
